--- a/112.xlsx
+++ b/112.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\rouyi\rouyi\rouyi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD3C0DE-1B20-45F2-B7F6-985A51A8B36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCFEA32-586E-4CB6-B9D9-F740C14CE01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7190,10 +7190,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7416,7 +7416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7448,10 +7448,10 @@
       <c r="F1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="19">
@@ -22134,7 +22134,7 @@
     <col min="5" max="9" width="12.59765625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("UNIQUE('公告用請勿編輯'!D:D)"),"錄取學校")</f>
         <v>錄取學校</v>
@@ -22167,7 +22167,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺灣大學")</f>
         <v>國立臺灣大學</v>
@@ -22222,7 +22222,7 @@
         <f ca="1">COUNTIF(公告用請勿編輯!D:D,A3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>446</v>
       </c>
       <c r="E3" s="7">
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立陽明交通大學")</f>
         <v>國立陽明交通大學</v>
@@ -22313,7 +22313,7 @@
         <f ca="1">COUNTIF(公告用請勿編輯!D:D,A5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>447</v>
       </c>
       <c r="E5" s="7">
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立政治大學")</f>
         <v>國立政治大學</v>
@@ -22395,7 +22395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺灣師範大學")</f>
         <v>國立臺灣師範大學</v>
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立中正大學")</f>
         <v>國立中正大學</v>
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立中央大學")</f>
         <v>國立中央大學</v>
@@ -22530,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立中山大學")</f>
         <v>國立中山大學</v>
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺北大學")</f>
         <v>國立臺北大學</v>
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"慈濟大學")</f>
         <v>慈濟大學</v>
@@ -22659,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"亞洲大學")</f>
         <v>亞洲大學</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"大葉大學")</f>
         <v>大葉大學</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"長庚學校財團法人長庚科技大學")</f>
         <v>長庚學校財團法人長庚科技大學</v>
@@ -22729,7 +22729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立雲林科技大學")</f>
         <v>國立雲林科技大學</v>
@@ -22739,7 +22739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立彰化師範大學")</f>
         <v>國立彰化師範大學</v>
@@ -22749,7 +22749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺灣海洋大學")</f>
         <v>國立臺灣海洋大學</v>
@@ -22759,7 +22759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立高雄師範大學")</f>
         <v>國立高雄師範大學</v>
@@ -22769,7 +22769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺灣體育運動大學")</f>
         <v>國立臺灣體育運動大學</v>
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立體育大學")</f>
         <v>國立體育大學</v>
@@ -22789,7 +22789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立聯合大學")</f>
         <v>國立聯合大學</v>
@@ -22799,7 +22799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立暨南國際大學")</f>
         <v>國立暨南國際大學</v>
@@ -22809,7 +22809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立嘉義大學")</f>
         <v>國立嘉義大學</v>
@@ -22819,7 +22819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立東華大學")</f>
         <v>國立東華大學</v>
@@ -22829,7 +22829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺南大學")</f>
         <v>國立臺南大學</v>
@@ -22839,7 +22839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立宜蘭大學")</f>
         <v>國立宜蘭大學</v>
@@ -22849,7 +22849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立金門大學")</f>
         <v>國立金門大學</v>
@@ -22859,7 +22859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立高雄大學")</f>
         <v>國立高雄大學</v>
@@ -22869,7 +22869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立屏東大學")</f>
         <v>國立屏東大學</v>
@@ -22879,7 +22879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國立臺東大學")</f>
         <v>國立臺東大學</v>
@@ -22889,7 +22889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"國防大學")</f>
         <v>國防大學</v>
@@ -22899,7 +22899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="15">
       <c r="A33" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"海軍官校")</f>
         <v>海軍官校</v>
@@ -22909,7 +22909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="15">
       <c r="A34" s="5" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"空軍官校")</f>
         <v>空軍官校</v>
